--- a/RabiConfig/xlsx/Map.xlsx
+++ b/RabiConfig/xlsx/Map.xlsx
@@ -8,154 +8,172 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7CAEFD-BDBA-483B-8958-32E75A7DDD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42718B1-CC81-44B6-A8CD-D3967770DA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
     <sheet name="Map" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+  <si>
+    <t>Map</t>
+  </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapName</t>
+  </si>
+  <si>
+    <t>lowCount</t>
+  </si>
+  <si>
+    <t>highCameraParams</t>
+  </si>
+  <si>
+    <t>midCameraParams</t>
+  </si>
+  <si>
+    <t>lowACameraParams</t>
+  </si>
+  <si>
+    <t>lowBCameraParams</t>
+  </si>
+  <si>
+    <t>lowCCameraParams</t>
+  </si>
+  <si>
+    <t>lowDCameraParams</t>
+  </si>
+  <si>
+    <t>lowECameraParams</t>
+  </si>
+  <si>
+    <t>lowFCameraParams</t>
+  </si>
+  <si>
+    <t>lowGCameraParams</t>
+  </si>
+  <si>
+    <t>地图名</t>
+  </si>
+  <si>
+    <t>地图区域的数量</t>
+  </si>
+  <si>
+    <t>high摄像机参数</t>
+  </si>
+  <si>
+    <t>mid摄像机参数</t>
+  </si>
+  <si>
+    <t>A区域的摄像机参数</t>
+  </si>
+  <si>
+    <t>B区域的摄像机参数</t>
+  </si>
+  <si>
+    <t>C区域的摄像机参数</t>
+  </si>
+  <si>
+    <t>D区域的摄像机参数</t>
+  </si>
+  <si>
+    <t>E区域的摄像机参数</t>
+  </si>
+  <si>
+    <t>F区域的摄像机参数</t>
+  </si>
+  <si>
+    <t>G区域的摄像机参数</t>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>List&lt;float&gt;</t>
   </si>
   <si>
     <t>Dessert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,33,5,80,-527,-120,60</t>
+  </si>
+  <si>
+    <t>3,20,-2,80,0,50,60</t>
+  </si>
+  <si>
+    <t>4.5,20,-0.5,80,0,-2,20</t>
   </si>
   <si>
     <t>Island</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cameraPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄像机位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;float&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图区域的数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area0CameraPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area1CameraPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1区域的摄像机位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area2CameraPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2区域的摄像机位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area3CameraPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3区域的摄像机位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area4CameraPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4区域的摄像机位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area5CameraPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5区域的摄像机位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area6CameraPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6区域的摄像机位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0区域的摄像机位置和旋转角度和深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-7.2,67.83,-44,79,-29,2.6,116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-50.4,22.9,-63.2,79,-29,2.6,116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-14.5,16.7,-47.3,79,-29,2.6,116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2,16.8,-22.3,79,-29,2.6,116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>316,146,44,81.8,-889,-170,34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,-10.5,-38,196.5,-190,-3.2,60</t>
+  </si>
+  <si>
+    <t>4.6,-6.3,-20.8,196.5,-190,-3.2,60</t>
+  </si>
+  <si>
+    <t>9.5,-7.4,-20.8,196.5,-193.5,57.1,27.3</t>
+  </si>
+  <si>
+    <t>4.1,-7.4,-20.8,196.5,-193.5,57.1,20</t>
+  </si>
+  <si>
+    <t>0,-6.6,-20,196.5,-193.5,-66.2,20</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>-34.5,-16.6,-3.1,-24.2,-273.1,-7.9,60</t>
+  </si>
+  <si>
+    <t>-18.2,-10.3,0,-24.2,-273.1,-7.9,60</t>
+  </si>
+  <si>
+    <t>0.5,20,-4.5,80,0,50,33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,20,-3,80,0,50,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +184,19 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -199,10 +223,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -484,15 +509,15 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -500,187 +525,223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="28.375" customWidth="1"/>
+    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/RabiConfig/xlsx/Map.xlsx
+++ b/RabiConfig/xlsx/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42718B1-CC81-44B6-A8CD-D3967770DA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAD0FD5-9C82-4A43-A35E-8A5F53A04C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,119 +46,149 @@
     <t>lowCount</t>
   </si>
   <si>
-    <t>highCameraParams</t>
-  </si>
-  <si>
-    <t>midCameraParams</t>
-  </si>
-  <si>
-    <t>lowACameraParams</t>
-  </si>
-  <si>
-    <t>lowBCameraParams</t>
-  </si>
-  <si>
-    <t>lowCCameraParams</t>
-  </si>
-  <si>
-    <t>lowDCameraParams</t>
-  </si>
-  <si>
-    <t>lowECameraParams</t>
-  </si>
-  <si>
-    <t>lowFCameraParams</t>
-  </si>
-  <si>
-    <t>lowGCameraParams</t>
-  </si>
-  <si>
     <t>地图名</t>
   </si>
   <si>
     <t>地图区域的数量</t>
   </si>
   <si>
-    <t>high摄像机参数</t>
-  </si>
-  <si>
-    <t>mid摄像机参数</t>
-  </si>
-  <si>
-    <t>A区域的摄像机参数</t>
-  </si>
-  <si>
-    <t>B区域的摄像机参数</t>
-  </si>
-  <si>
-    <t>C区域的摄像机参数</t>
-  </si>
-  <si>
-    <t>D区域的摄像机参数</t>
-  </si>
-  <si>
-    <t>E区域的摄像机参数</t>
-  </si>
-  <si>
-    <t>F区域的摄像机参数</t>
-  </si>
-  <si>
-    <t>G区域的摄像机参数</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>List&lt;float&gt;</t>
-  </si>
-  <si>
     <t>Dessert</t>
   </si>
   <si>
-    <t>3,33,5,80,-527,-120,60</t>
-  </si>
-  <si>
-    <t>3,20,-2,80,0,50,60</t>
-  </si>
-  <si>
-    <t>4.5,20,-0.5,80,0,-2,20</t>
-  </si>
-  <si>
     <t>Island</t>
   </si>
   <si>
-    <t>7,-10.5,-38,196.5,-190,-3.2,60</t>
-  </si>
-  <si>
-    <t>4.6,-6.3,-20.8,196.5,-190,-3.2,60</t>
-  </si>
-  <si>
-    <t>9.5,-7.4,-20.8,196.5,-193.5,57.1,27.3</t>
-  </si>
-  <si>
-    <t>4.1,-7.4,-20.8,196.5,-193.5,57.1,20</t>
-  </si>
-  <si>
-    <t>0,-6.6,-20,196.5,-193.5,-66.2,20</t>
-  </si>
-  <si>
     <t>Null</t>
-  </si>
-  <si>
-    <t>-34.5,-16.6,-3.1,-24.2,-273.1,-7.9,60</t>
-  </si>
-  <si>
-    <t>-18.2,-10.3,0,-24.2,-273.1,-7.9,60</t>
-  </si>
-  <si>
-    <t>0.5,20,-4.5,80,0,50,33</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,20,-3,80,0,50,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high摄像机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid摄像机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A区域的摄像机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B区域的摄像机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C区域的摄像机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D区域的摄像机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E区域的摄像机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F区域的摄像机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G区域的摄像机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DessertHigh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DessertMid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DessertLowA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DessertLowB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DessertLowC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IslandHigh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IslandMid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IslandLowA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IslandLowB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IslandLowC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullHigh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullMid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>highCamera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>midCamera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowACamera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowBCamera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowCCamera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowDCamera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowECamera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowFCamera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowGCamera</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,18 +208,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -223,11 +247,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -517,7 +540,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -528,19 +551,18 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="28.375" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="9.75" customWidth="1"/>
     <col min="12" max="12" width="10.375" customWidth="1"/>
@@ -557,31 +579,31 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -589,75 +611,75 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -665,25 +687,25 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -695,25 +717,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -725,16 +747,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
